--- a/data/nzd0058/nzd0058.xlsx
+++ b/data/nzd0058/nzd0058.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H287"/>
+  <dimension ref="A1:H292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8651,6 +8651,156 @@
         <v>379.6221052631579</v>
       </c>
       <c r="H287" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>330.5666666666667</v>
+      </c>
+      <c r="C288" t="n">
+        <v>347.3323076923077</v>
+      </c>
+      <c r="D288" t="n">
+        <v>368.14</v>
+      </c>
+      <c r="E288" t="n">
+        <v>377.595</v>
+      </c>
+      <c r="F288" t="n">
+        <v>359.0761904761905</v>
+      </c>
+      <c r="G288" t="n">
+        <v>369.5384210526316</v>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:11:35+00:00</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>326.8366666666667</v>
+      </c>
+      <c r="C289" t="n">
+        <v>340.1484615384616</v>
+      </c>
+      <c r="D289" t="n">
+        <v>361.47</v>
+      </c>
+      <c r="E289" t="n">
+        <v>369.66</v>
+      </c>
+      <c r="F289" t="n">
+        <v>356.6147619047619</v>
+      </c>
+      <c r="G289" t="n">
+        <v>367.6963157894737</v>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>328.1066666666667</v>
+      </c>
+      <c r="C290" t="n">
+        <v>345.7284615384615</v>
+      </c>
+      <c r="D290" t="n">
+        <v>371.98</v>
+      </c>
+      <c r="E290" t="n">
+        <v>376.35</v>
+      </c>
+      <c r="F290" t="n">
+        <v>373.9161904761905</v>
+      </c>
+      <c r="G290" t="n">
+        <v>375.5957894736842</v>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>346.5133333333333</v>
+      </c>
+      <c r="C291" t="n">
+        <v>363.3215384615385</v>
+      </c>
+      <c r="D291" t="n">
+        <v>384.01</v>
+      </c>
+      <c r="E291" t="n">
+        <v>386.925</v>
+      </c>
+      <c r="F291" t="n">
+        <v>380.7880952380953</v>
+      </c>
+      <c r="G291" t="n">
+        <v>383.4394736842105</v>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>331.8866666666667</v>
+      </c>
+      <c r="C292" t="n">
+        <v>344.3723076923077</v>
+      </c>
+      <c r="D292" t="n">
+        <v>362.79</v>
+      </c>
+      <c r="E292" t="n">
+        <v>373.4</v>
+      </c>
+      <c r="F292" t="n">
+        <v>356.6819047619048</v>
+      </c>
+      <c r="G292" t="n">
+        <v>369.0731578947368</v>
+      </c>
+      <c r="H292" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -8667,7 +8817,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B329"/>
+  <dimension ref="A1:B334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11965,6 +12115,56 @@
       </c>
       <c r="B329" t="n">
         <v>0.46</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -12133,28 +12333,28 @@
         <v>0.0336</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5025886297600796</v>
+        <v>0.5609251654969404</v>
       </c>
       <c r="J2" t="n">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="K2" t="n">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03012436646158179</v>
+        <v>0.03839377042182801</v>
       </c>
       <c r="M2" t="n">
-        <v>16.33472474596984</v>
+        <v>16.24963774658998</v>
       </c>
       <c r="N2" t="n">
-        <v>391.5343808294576</v>
+        <v>388.4784032254485</v>
       </c>
       <c r="O2" t="n">
-        <v>19.78722771965435</v>
+        <v>19.70985548464139</v>
       </c>
       <c r="P2" t="n">
-        <v>305.845114245067</v>
+        <v>305.2379633060611</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -12210,28 +12410,28 @@
         <v>0.0775</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6117139069782067</v>
+        <v>0.6517314374860526</v>
       </c>
       <c r="J3" t="n">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="K3" t="n">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1000977844617732</v>
+        <v>0.1141310416056571</v>
       </c>
       <c r="M3" t="n">
-        <v>9.76248942651867</v>
+        <v>9.735824990454308</v>
       </c>
       <c r="N3" t="n">
-        <v>164.2655872631461</v>
+        <v>164.3022802296234</v>
       </c>
       <c r="O3" t="n">
-        <v>12.81661372060288</v>
+        <v>12.81804510171592</v>
       </c>
       <c r="P3" t="n">
-        <v>322.1575949537736</v>
+        <v>321.7389592965494</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -12287,28 +12487,28 @@
         <v>0.1172</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5142535799504417</v>
+        <v>0.5353712762436853</v>
       </c>
       <c r="J4" t="n">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="K4" t="n">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1197431821314672</v>
+        <v>0.1307408126748848</v>
       </c>
       <c r="M4" t="n">
-        <v>7.185581857714041</v>
+        <v>7.188237629143623</v>
       </c>
       <c r="N4" t="n">
-        <v>96.05717109617191</v>
+        <v>96.06798470695789</v>
       </c>
       <c r="O4" t="n">
-        <v>9.800876037180142</v>
+        <v>9.801427687176899</v>
       </c>
       <c r="P4" t="n">
-        <v>350.8634465143671</v>
+        <v>350.6450278441631</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -12364,28 +12564,28 @@
         <v>0.09089999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2967750621550915</v>
+        <v>0.3230253830762334</v>
       </c>
       <c r="J5" t="n">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="K5" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04879761088296808</v>
+        <v>0.05845583061931747</v>
       </c>
       <c r="M5" t="n">
-        <v>6.845749929111633</v>
+        <v>6.850271389259362</v>
       </c>
       <c r="N5" t="n">
-        <v>86.31036754836977</v>
+        <v>86.18739898012609</v>
       </c>
       <c r="O5" t="n">
-        <v>9.290337321559953</v>
+        <v>9.283716873113166</v>
       </c>
       <c r="P5" t="n">
-        <v>362.2046996037789</v>
+        <v>361.9350298040611</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -12441,28 +12641,28 @@
         <v>0.1252</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1170052895761642</v>
+        <v>0.1472533657779468</v>
       </c>
       <c r="J6" t="n">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="K6" t="n">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01001145025093542</v>
+        <v>0.01571540425019091</v>
       </c>
       <c r="M6" t="n">
-        <v>6.382236596249688</v>
+        <v>6.447421115974451</v>
       </c>
       <c r="N6" t="n">
-        <v>67.99615296300477</v>
+        <v>69.73425159680421</v>
       </c>
       <c r="O6" t="n">
-        <v>8.245977987055555</v>
+        <v>8.350703658782546</v>
       </c>
       <c r="P6" t="n">
-        <v>354.8765736837722</v>
+        <v>354.567702999461</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -12518,28 +12718,28 @@
         <v>0.1105</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1395517717909217</v>
+        <v>0.1758899346333295</v>
       </c>
       <c r="J7" t="n">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="K7" t="n">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="L7" t="n">
-        <v>0.009225077698451489</v>
+        <v>0.0148855392209869</v>
       </c>
       <c r="M7" t="n">
-        <v>8.178255327061752</v>
+        <v>8.16724713931162</v>
       </c>
       <c r="N7" t="n">
-        <v>105.6639515784115</v>
+        <v>105.7880384064446</v>
       </c>
       <c r="O7" t="n">
-        <v>10.27929723173776</v>
+        <v>10.28533122492633</v>
       </c>
       <c r="P7" t="n">
-        <v>360.4271400536114</v>
+        <v>360.0590228298897</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -12576,7 +12776,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H287"/>
+  <dimension ref="A1:H292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23834,6 +24034,216 @@
         </is>
       </c>
     </row>
+    <row r="288">
+      <c r="A288" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>-35.12267953811874,173.9798990087996</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>-35.1228087939018,173.98080854518486</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>-35.12283523100494,173.9817250775487</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>-35.122782344096194,173.98261686885985</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>-35.122954670230534,173.9835120692943</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>-35.12286035190553,173.9844098071349</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:11:35+00:00</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>-35.122710918854054,173.97988428722792</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>-35.122870179233544,173.98078338624117</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>-35.12289461115641,173.98171348485783</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>-35.12285387541159,173.98261517343386</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>-35.12297686328523,173.98351214436028</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>-35.12287696065695,173.98440993662487</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>-35.122700234260726,173.97988929966778</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>-35.122822498626164,173.98080292827</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>-35.12280104513,173.98173175159445</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>-35.12279356734611,173.9826166028479</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>-35.12282086787693,173.98351161672403</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>-35.12280573758519,173.98440938133584</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>-35.12254537774343,173.9799619470119</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>-35.12267216731645,173.98086454181953</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>-35.12269394719061,173.98175266009446</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>-35.1226982373311,173.98261886234565</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>-35.122758908507286,173.9835114071563</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>-35.12273501752049,173.98440882997093</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>-35.12266843287151,173.97990421857568</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>-35.122834086841344,173.98079817881012</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>-35.12288285976224,173.98171577906479</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>-35.122820160588795,173.9826159725384</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>-35.122976257903005,173.98351214231263</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>-35.122864546801615,173.98440983984037</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0058/nzd0058.xlsx
+++ b/data/nzd0058/nzd0058.xlsx
@@ -12178,7 +12178,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12269,35 +12269,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -12356,27 +12361,28 @@
       <c r="P2" t="n">
         <v>305.2379633060611</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.9785942847097 -35.125460610378035, 173.98224950518087 -35.117668858219076)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.9785942847097</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-35.12546061037803</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.9822495051809</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-35.11766885821908</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.9804218949453</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-35.12156473429856</v>
       </c>
     </row>
@@ -12433,27 +12439,28 @@
       <c r="P3" t="n">
         <v>321.7389592965494</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.97959209147592 -35.125776711863175, 173.98283537761102 -35.117863211615976)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.9795920914759</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-35.12577671186317</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.982835377611</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-35.11786321161598</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.9812137345435</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-35.12181996173958</v>
       </c>
     </row>
@@ -12510,27 +12517,28 @@
       <c r="P4" t="n">
         <v>350.6450278441631</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.98108521384472 -35.126112621549154, 173.9826945854294 -35.1178689203516)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>173.9810852138447</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-35.12611262154915</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.9826945854294</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-35.1178689203516</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.9818898996371</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-35.12199077095038</v>
       </c>
     </row>
@@ -12587,27 +12595,28 @@
       <c r="P5" t="n">
         <v>361.9350298040611</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (173.98253618870245 -35.12618623318624, 173.98273402990432 -35.117839081075694)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>173.9825361887025</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-35.12618623318624</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>173.9827340299043</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-35.11783908107569</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>173.9826351093034</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-35.12201265713097</v>
       </c>
     </row>
@@ -12664,27 +12673,28 @@
       <c r="P6" t="n">
         <v>354.567702999461</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (173.98352302199348 -35.12619221915886, 173.9834947863163 -35.117843524802815)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>173.9835230219935</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-35.12619221915886</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>173.9834947863163</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-35.11784352480282</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>173.9835089041549</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-35.12201787198084</v>
       </c>
     </row>
@@ -12741,27 +12751,28 @@
       <c r="P7" t="n">
         <v>360.0590228298897</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (173.984435786376 -35.12619217566362, 173.98437070043383 -35.11784362134881)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>173.984435786376</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-35.12619217566362</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>173.9843707004338</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-35.11784362134881</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>173.9844032434049</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-35.12201789850621</v>
       </c>
     </row>

--- a/data/nzd0058/nzd0058.xlsx
+++ b/data/nzd0058/nzd0058.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H292"/>
+  <dimension ref="A1:H295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8803,6 +8803,92 @@
       <c r="H292" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>334.9966666666667</v>
+      </c>
+      <c r="C293" t="n">
+        <v>351.6461538461539</v>
+      </c>
+      <c r="D293" t="n">
+        <v>371.32</v>
+      </c>
+      <c r="E293" t="n">
+        <v>373.09</v>
+      </c>
+      <c r="F293" t="n">
+        <v>362.9004761904762</v>
+      </c>
+      <c r="G293" t="n">
+        <v>371.5194736842105</v>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>328.6633333333333</v>
+      </c>
+      <c r="C294" t="n">
+        <v>351.4907692307692</v>
+      </c>
+      <c r="D294" t="n">
+        <v>366.45</v>
+      </c>
+      <c r="E294" t="n">
+        <v>379.925</v>
+      </c>
+      <c r="F294" t="n">
+        <v>360.762380952381</v>
+      </c>
+      <c r="G294" t="n">
+        <v>380.8442105263158</v>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:08+00:00</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>306.3233333333333</v>
+      </c>
+      <c r="C295" t="n">
+        <v>334.11</v>
+      </c>
+      <c r="D295" t="n">
+        <v>352.68</v>
+      </c>
+      <c r="E295" t="n">
+        <v>348.625</v>
+      </c>
+      <c r="F295" t="inlineStr"/>
+      <c r="G295" t="inlineStr"/>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -8817,7 +8903,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B334"/>
+  <dimension ref="A1:B337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12165,6 +12251,36 @@
       </c>
       <c r="B334" t="n">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
@@ -12338,28 +12454,28 @@
         <v>0.0336</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5609251654969404</v>
+        <v>0.5697418942807886</v>
       </c>
       <c r="J2" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="K2" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03839377042182801</v>
+        <v>0.04035590340193551</v>
       </c>
       <c r="M2" t="n">
-        <v>16.24963774658998</v>
+        <v>16.2008267130085</v>
       </c>
       <c r="N2" t="n">
-        <v>388.4784032254485</v>
+        <v>385.8407386001881</v>
       </c>
       <c r="O2" t="n">
-        <v>19.70985548464139</v>
+        <v>19.64282919032256</v>
       </c>
       <c r="P2" t="n">
-        <v>305.2379633060611</v>
+        <v>305.1460444645729</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -12416,28 +12532,28 @@
         <v>0.0775</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6517314374860526</v>
+        <v>0.6681330019771268</v>
       </c>
       <c r="J3" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="K3" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1141310416056571</v>
+        <v>0.1208580581988302</v>
       </c>
       <c r="M3" t="n">
-        <v>9.735824990454308</v>
+        <v>9.725194839057622</v>
       </c>
       <c r="N3" t="n">
-        <v>164.3022802296234</v>
+        <v>163.7948547118786</v>
       </c>
       <c r="O3" t="n">
-        <v>12.81804510171592</v>
+        <v>12.79823639068597</v>
       </c>
       <c r="P3" t="n">
-        <v>321.7389592965494</v>
+        <v>321.5659858684372</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -12494,28 +12610,28 @@
         <v>0.1172</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5353712762436853</v>
+        <v>0.5332867906035818</v>
       </c>
       <c r="J4" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="K4" t="n">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1307408126748848</v>
+        <v>0.1316305574082129</v>
       </c>
       <c r="M4" t="n">
-        <v>7.188237629143623</v>
+        <v>7.185282412633372</v>
       </c>
       <c r="N4" t="n">
-        <v>96.06798470695789</v>
+        <v>95.71367492600474</v>
       </c>
       <c r="O4" t="n">
-        <v>9.801427687176899</v>
+        <v>9.783336594741323</v>
       </c>
       <c r="P4" t="n">
-        <v>350.6450278441631</v>
+        <v>350.6673169032192</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -12572,28 +12688,28 @@
         <v>0.09089999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3230253830762334</v>
+        <v>0.3161851642042133</v>
       </c>
       <c r="J5" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="K5" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05845583061931747</v>
+        <v>0.05605405101654815</v>
       </c>
       <c r="M5" t="n">
-        <v>6.850271389259362</v>
+        <v>6.901678241123828</v>
       </c>
       <c r="N5" t="n">
-        <v>86.18739898012609</v>
+        <v>87.35590564990351</v>
       </c>
       <c r="O5" t="n">
-        <v>9.283716873113166</v>
+        <v>9.34643812636148</v>
       </c>
       <c r="P5" t="n">
-        <v>361.9350298040611</v>
+        <v>362.0069204427535</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -12650,28 +12766,28 @@
         <v>0.1252</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1472533657779468</v>
+        <v>0.1528027352272515</v>
       </c>
       <c r="J6" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="K6" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01571540425019091</v>
+        <v>0.01715555637726296</v>
       </c>
       <c r="M6" t="n">
-        <v>6.447421115974451</v>
+        <v>6.427140684859674</v>
       </c>
       <c r="N6" t="n">
-        <v>69.73425159680421</v>
+        <v>69.28053443509093</v>
       </c>
       <c r="O6" t="n">
-        <v>8.350703658782546</v>
+        <v>8.323492922751297</v>
       </c>
       <c r="P6" t="n">
-        <v>354.567702999461</v>
+        <v>354.5105101803981</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -12728,28 +12844,28 @@
         <v>0.1105</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1758899346333295</v>
+        <v>0.194358847478383</v>
       </c>
       <c r="J7" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="K7" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0148855392209869</v>
+        <v>0.0182094088643846</v>
       </c>
       <c r="M7" t="n">
-        <v>8.16724713931162</v>
+        <v>8.179053939632812</v>
       </c>
       <c r="N7" t="n">
-        <v>105.7880384064446</v>
+        <v>106.1665138569985</v>
       </c>
       <c r="O7" t="n">
-        <v>10.28533122492633</v>
+        <v>10.30371359544696</v>
       </c>
       <c r="P7" t="n">
-        <v>360.0590228298897</v>
+        <v>359.8701283766588</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -12787,7 +12903,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H292"/>
+  <dimension ref="A1:H295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24255,6 +24371,124 @@
         </is>
       </c>
     </row>
+    <row r="293">
+      <c r="A293" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>-35.122642268235104,173.97991649311837</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>-35.122771932464396,173.98082365292566</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>-35.12280692082728,173.9817306044932</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>-35.122822955132946,173.9826159063025</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>-35.12292018920457,173.98351195266574</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>-35.12284249037967,173.98440966787786</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>-35.12269555098747,173.97989149672105</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>-35.122773260212355,173.98082310874548</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>-35.1228502763508,173.9817221402717</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>-35.12276133994167,173.9826173666973</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>-35.12293946697903,173.98351201787082</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>-35.12275841687904,173.9844090124024</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:08+00:00</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>-35.12288349884496,173.97980332496425</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>-35.12292177735075,173.98076223858365</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>-35.12297286475718,173.98169820750948</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>-35.123043498749766,173.98261067899898</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr"/>
+      <c r="G295" t="inlineStr"/>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0058/nzd0058.xlsx
+++ b/data/nzd0058/nzd0058.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H295"/>
+  <dimension ref="A1:H298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8887,6 +8887,84 @@
       <c r="F295" t="inlineStr"/>
       <c r="G295" t="inlineStr"/>
       <c r="H295" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:22+00:00</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>291.2866666666667</v>
+      </c>
+      <c r="C296" t="n">
+        <v>335.1861538461538</v>
+      </c>
+      <c r="D296" t="n">
+        <v>367.91</v>
+      </c>
+      <c r="E296" t="n">
+        <v>382.71</v>
+      </c>
+      <c r="F296" t="n">
+        <v>361.3190476190476</v>
+      </c>
+      <c r="G296" t="n">
+        <v>367.76</v>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr"/>
+      <c r="C297" t="n">
+        <v>343.9438461538461</v>
+      </c>
+      <c r="D297" t="n">
+        <v>374.73</v>
+      </c>
+      <c r="E297" t="n">
+        <v>377.835</v>
+      </c>
+      <c r="F297" t="n">
+        <v>370.1228571428572</v>
+      </c>
+      <c r="G297" t="n">
+        <v>370.4615789473684</v>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>273.3833333333333</v>
+      </c>
+      <c r="C298" t="inlineStr"/>
+      <c r="D298" t="inlineStr"/>
+      <c r="E298" t="inlineStr"/>
+      <c r="F298" t="inlineStr"/>
+      <c r="G298" t="inlineStr"/>
+      <c r="H298" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -8903,7 +8981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B337"/>
+  <dimension ref="A1:B340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12281,6 +12359,36 @@
       </c>
       <c r="B337" t="n">
         <v>0.13</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>0.82</v>
       </c>
     </row>
   </sheetData>
@@ -12454,28 +12562,28 @@
         <v>0.0336</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5697418942807886</v>
+        <v>0.5094028140507222</v>
       </c>
       <c r="J2" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="K2" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04035590340193551</v>
+        <v>0.03213960611346378</v>
       </c>
       <c r="M2" t="n">
-        <v>16.2008267130085</v>
+        <v>16.40284410604337</v>
       </c>
       <c r="N2" t="n">
-        <v>385.8407386001881</v>
+        <v>394.1847764527448</v>
       </c>
       <c r="O2" t="n">
-        <v>19.64282919032256</v>
+        <v>19.85408714730407</v>
       </c>
       <c r="P2" t="n">
-        <v>305.1460444645729</v>
+        <v>305.7848879574207</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -12532,28 +12640,28 @@
         <v>0.0775</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6681330019771268</v>
+        <v>0.6692678401806457</v>
       </c>
       <c r="J3" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="K3" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1208580581988302</v>
+        <v>0.1227787353542917</v>
       </c>
       <c r="M3" t="n">
-        <v>9.725194839057622</v>
+        <v>9.684067188603038</v>
       </c>
       <c r="N3" t="n">
-        <v>163.7948547118786</v>
+        <v>162.7152234218193</v>
       </c>
       <c r="O3" t="n">
-        <v>12.79823639068597</v>
+        <v>12.75598774779199</v>
       </c>
       <c r="P3" t="n">
-        <v>321.5659858684372</v>
+        <v>321.5538713483072</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -12610,28 +12718,28 @@
         <v>0.1172</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5332867906035818</v>
+        <v>0.543243312307693</v>
       </c>
       <c r="J4" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="K4" t="n">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1316305574082129</v>
+        <v>0.1371780068380141</v>
       </c>
       <c r="M4" t="n">
-        <v>7.185282412633372</v>
+        <v>7.183055914485248</v>
       </c>
       <c r="N4" t="n">
-        <v>95.71367492600474</v>
+        <v>95.44118594045811</v>
       </c>
       <c r="O4" t="n">
-        <v>9.783336594741323</v>
+        <v>9.7694004903299</v>
       </c>
       <c r="P4" t="n">
-        <v>350.6673169032192</v>
+        <v>350.5624895680598</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -12688,28 +12796,28 @@
         <v>0.09089999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3161851642042133</v>
+        <v>0.3309650962372434</v>
       </c>
       <c r="J5" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="K5" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05605405101654815</v>
+        <v>0.06144406161115989</v>
       </c>
       <c r="M5" t="n">
-        <v>6.901678241123828</v>
+        <v>6.925324718641368</v>
       </c>
       <c r="N5" t="n">
-        <v>87.35590564990351</v>
+        <v>87.49323362691354</v>
       </c>
       <c r="O5" t="n">
-        <v>9.34643812636148</v>
+        <v>9.353781782087582</v>
       </c>
       <c r="P5" t="n">
-        <v>362.0069204427535</v>
+        <v>361.8523464563515</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -12766,28 +12874,28 @@
         <v>0.1252</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1528027352272515</v>
+        <v>0.1642828264463886</v>
       </c>
       <c r="J6" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="K6" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01715555637726296</v>
+        <v>0.01994334209840898</v>
       </c>
       <c r="M6" t="n">
-        <v>6.427140684859674</v>
+        <v>6.439305092469461</v>
       </c>
       <c r="N6" t="n">
-        <v>69.28053443509093</v>
+        <v>69.29317690642004</v>
       </c>
       <c r="O6" t="n">
-        <v>8.323492922751297</v>
+        <v>8.324252333178039</v>
       </c>
       <c r="P6" t="n">
-        <v>354.5105101803981</v>
+        <v>354.3911733695317</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -12844,28 +12952,28 @@
         <v>0.1105</v>
       </c>
       <c r="I7" t="n">
-        <v>0.194358847478383</v>
+        <v>0.2010215227764296</v>
       </c>
       <c r="J7" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="K7" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0182094088643846</v>
+        <v>0.01974999226094987</v>
       </c>
       <c r="M7" t="n">
-        <v>8.179053939632812</v>
+        <v>8.141943070976142</v>
       </c>
       <c r="N7" t="n">
-        <v>106.1665138569985</v>
+        <v>105.4792122693819</v>
       </c>
       <c r="O7" t="n">
-        <v>10.30371359544696</v>
+        <v>10.27030731134088</v>
       </c>
       <c r="P7" t="n">
-        <v>359.8701283766588</v>
+        <v>359.8014341172884</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -12903,7 +13011,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H295"/>
+  <dimension ref="A1:H298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24489,6 +24597,108 @@
         </is>
       </c>
     </row>
+    <row r="296">
+      <c r="A296" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:22+00:00</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>-35.123010003253555,173.97974397786038</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>-35.122912581712036,173.98076600744835</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>-35.1228372785964,173.981724677801</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>-35.12273623411739,173.9826179617518</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>-35.12293444788808,173.98351200089422</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>-35.12287638646868,173.98440993214822</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr"/>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>-35.12283774800743,173.98079667827147</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>-35.122776563057805,173.98173653118127</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>-35.12278018057812,173.98261692013924</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>-35.12285506982654,173.98351173240735</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>-35.12285202854838,173.984409742242</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>-35.12316062506913,173.97967331628848</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr"/>
+      <c r="D298" t="inlineStr"/>
+      <c r="E298" t="inlineStr"/>
+      <c r="F298" t="inlineStr"/>
+      <c r="G298" t="inlineStr"/>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0058/nzd0058.xlsx
+++ b/data/nzd0058/nzd0058.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/nzd0058/nzd0058.xlsx
+++ b/data/nzd0058/nzd0058.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H298"/>
+  <dimension ref="A1:H299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8967,6 +8967,34 @@
       <c r="H298" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:54+00:00</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr"/>
+      <c r="C299" t="n">
+        <v>322.5346153846153</v>
+      </c>
+      <c r="D299" t="n">
+        <v>371.94</v>
+      </c>
+      <c r="E299" t="n">
+        <v>370.585</v>
+      </c>
+      <c r="F299" t="n">
+        <v>361.3085714285714</v>
+      </c>
+      <c r="G299" t="n">
+        <v>359.6568421052632</v>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -8981,7 +9009,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B340"/>
+  <dimension ref="A1:B341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12389,6 +12417,16 @@
       </c>
       <c r="B340" t="n">
         <v>0.82</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>-0.6899999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -12565,7 +12603,7 @@
         <v>0.5094028140507222</v>
       </c>
       <c r="J2" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K2" t="n">
         <v>256</v>
@@ -12640,28 +12678,28 @@
         <v>0.0775</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6692678401806457</v>
+        <v>0.6571089096324964</v>
       </c>
       <c r="J3" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K3" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1227787353542917</v>
+        <v>0.1190501633006132</v>
       </c>
       <c r="M3" t="n">
-        <v>9.684067188603038</v>
+        <v>9.719762534106653</v>
       </c>
       <c r="N3" t="n">
-        <v>162.7152234218193</v>
+        <v>163.092015257767</v>
       </c>
       <c r="O3" t="n">
-        <v>12.75598774779199</v>
+        <v>12.77074842199027</v>
       </c>
       <c r="P3" t="n">
-        <v>321.5538713483072</v>
+        <v>321.6836170345185</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -12718,28 +12756,28 @@
         <v>0.1172</v>
       </c>
       <c r="I4" t="n">
-        <v>0.543243312307693</v>
+        <v>0.5485050788990917</v>
       </c>
       <c r="J4" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K4" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1371780068380141</v>
+        <v>0.1401315337900951</v>
       </c>
       <c r="M4" t="n">
-        <v>7.183055914485248</v>
+        <v>7.183870492854815</v>
       </c>
       <c r="N4" t="n">
-        <v>95.44118594045811</v>
+        <v>95.28877161735242</v>
       </c>
       <c r="O4" t="n">
-        <v>9.7694004903299</v>
+        <v>9.761596776007112</v>
       </c>
       <c r="P4" t="n">
-        <v>350.5624895680598</v>
+        <v>350.5069656486554</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -12796,28 +12834,28 @@
         <v>0.09089999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3309650962372434</v>
+        <v>0.33108982662869</v>
       </c>
       <c r="J5" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K5" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06144406161115989</v>
+        <v>0.06192309127518947</v>
       </c>
       <c r="M5" t="n">
-        <v>6.925324718641368</v>
+        <v>6.900229873790187</v>
       </c>
       <c r="N5" t="n">
-        <v>87.49323362691354</v>
+        <v>87.16808809722424</v>
       </c>
       <c r="O5" t="n">
-        <v>9.353781782087582</v>
+        <v>9.33638517292556</v>
       </c>
       <c r="P5" t="n">
-        <v>361.8523464563515</v>
+        <v>361.8510384359196</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -12874,28 +12912,28 @@
         <v>0.1252</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1642828264463886</v>
+        <v>0.1663744415528478</v>
       </c>
       <c r="J6" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K6" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01994334209840898</v>
+        <v>0.02060120905106122</v>
       </c>
       <c r="M6" t="n">
-        <v>6.439305092469461</v>
+        <v>6.42526757363934</v>
       </c>
       <c r="N6" t="n">
-        <v>69.29317690642004</v>
+        <v>69.04708239014482</v>
       </c>
       <c r="O6" t="n">
-        <v>8.324252333178039</v>
+        <v>8.309457406482377</v>
       </c>
       <c r="P6" t="n">
-        <v>354.3911733695317</v>
+        <v>354.369382407482</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -12952,28 +12990,28 @@
         <v>0.1105</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2010215227764296</v>
+        <v>0.1968372173076516</v>
       </c>
       <c r="J7" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K7" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01974999226094987</v>
+        <v>0.01908673324295163</v>
       </c>
       <c r="M7" t="n">
-        <v>8.141943070976142</v>
+        <v>8.134243874093682</v>
       </c>
       <c r="N7" t="n">
-        <v>105.4792122693819</v>
+        <v>105.1750259535917</v>
       </c>
       <c r="O7" t="n">
-        <v>10.27030731134088</v>
+        <v>10.25548760194227</v>
       </c>
       <c r="P7" t="n">
-        <v>359.8014341172884</v>
+        <v>359.8446775407044</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -13011,7 +13049,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H298"/>
+  <dimension ref="A1:H299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24699,6 +24737,44 @@
         </is>
       </c>
     </row>
+    <row r="299">
+      <c r="A299" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:54+00:00</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr"/>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>-35.12302068797325,173.9807216996639</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>-35.122801401232856,173.98173168207316</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>-35.12284553685249,173.9826153710734</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>-35.1229345423449,173.98351200121374</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>-35.12294944599296,173.9844105017577</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0058/nzd0058.xlsx
+++ b/data/nzd0058/nzd0058.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H299"/>
+  <dimension ref="A1:H300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8976,7 +8976,9 @@
           <t>2025-06-06 22:10:54+00:00</t>
         </is>
       </c>
-      <c r="B299" t="inlineStr"/>
+      <c r="B299" t="n">
+        <v>317.7</v>
+      </c>
       <c r="C299" t="n">
         <v>322.5346153846153</v>
       </c>
@@ -8993,6 +8995,34 @@
         <v>359.6568421052632</v>
       </c>
       <c r="H299" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr"/>
+      <c r="C300" t="n">
+        <v>359.66</v>
+      </c>
+      <c r="D300" t="n">
+        <v>390.21</v>
+      </c>
+      <c r="E300" t="n">
+        <v>382.225</v>
+      </c>
+      <c r="F300" t="n">
+        <v>368.1133333333333</v>
+      </c>
+      <c r="G300" t="n">
+        <v>370.481052631579</v>
+      </c>
+      <c r="H300" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -9009,7 +9039,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B341"/>
+  <dimension ref="A1:B342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12427,6 +12457,16 @@
       </c>
       <c r="B341" t="n">
         <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>-0.91</v>
       </c>
     </row>
   </sheetData>
@@ -12600,28 +12640,28 @@
         <v>0.0336</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5094028140507222</v>
+        <v>0.5083969947398743</v>
       </c>
       <c r="J2" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K2" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03213960611346378</v>
+        <v>0.03227593898090175</v>
       </c>
       <c r="M2" t="n">
-        <v>16.40284410604337</v>
+        <v>16.34458397300223</v>
       </c>
       <c r="N2" t="n">
-        <v>394.1847764527448</v>
+        <v>392.6571024920107</v>
       </c>
       <c r="O2" t="n">
-        <v>19.85408714730407</v>
+        <v>19.81557726870481</v>
       </c>
       <c r="P2" t="n">
-        <v>305.7848879574207</v>
+        <v>305.7955552151498</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -12678,28 +12718,28 @@
         <v>0.0775</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6571089096324964</v>
+        <v>0.6725973480715753</v>
       </c>
       <c r="J3" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K3" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1190501633006132</v>
+        <v>0.1237757556229612</v>
       </c>
       <c r="M3" t="n">
-        <v>9.719762534106653</v>
+        <v>9.747006486338233</v>
       </c>
       <c r="N3" t="n">
-        <v>163.092015257767</v>
+        <v>164.0989785979636</v>
       </c>
       <c r="O3" t="n">
-        <v>12.77074842199027</v>
+        <v>12.81011235696095</v>
       </c>
       <c r="P3" t="n">
-        <v>321.6836170345185</v>
+        <v>321.5180103433996</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -12756,28 +12796,28 @@
         <v>0.1172</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5485050788990917</v>
+        <v>0.5666916265849667</v>
       </c>
       <c r="J4" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K4" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1401315337900951</v>
+        <v>0.1461004751973375</v>
       </c>
       <c r="M4" t="n">
-        <v>7.183870492854815</v>
+        <v>7.251872765323291</v>
       </c>
       <c r="N4" t="n">
-        <v>95.28877161735242</v>
+        <v>97.2506969373121</v>
       </c>
       <c r="O4" t="n">
-        <v>9.761596776007112</v>
+        <v>9.86157679771912</v>
       </c>
       <c r="P4" t="n">
-        <v>350.5069656486554</v>
+        <v>350.3146696822994</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -12834,28 +12874,28 @@
         <v>0.09089999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.33108982662869</v>
+        <v>0.3396086231331316</v>
       </c>
       <c r="J5" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K5" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06192309127518947</v>
+        <v>0.06503979423160899</v>
       </c>
       <c r="M5" t="n">
-        <v>6.900229873790187</v>
+        <v>6.918706448601196</v>
       </c>
       <c r="N5" t="n">
-        <v>87.16808809722424</v>
+        <v>87.35478562514328</v>
       </c>
       <c r="O5" t="n">
-        <v>9.33638517292556</v>
+        <v>9.346378208971819</v>
       </c>
       <c r="P5" t="n">
-        <v>361.8510384359196</v>
+        <v>361.7615187034823</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -12912,28 +12952,28 @@
         <v>0.1252</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1663744415528478</v>
+        <v>0.1737117305566871</v>
       </c>
       <c r="J6" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K6" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02060120905106122</v>
+        <v>0.0224856895766361</v>
       </c>
       <c r="M6" t="n">
-        <v>6.42526757363934</v>
+        <v>6.439974117309316</v>
       </c>
       <c r="N6" t="n">
-        <v>69.04708239014482</v>
+        <v>69.12134986408671</v>
       </c>
       <c r="O6" t="n">
-        <v>8.309457406482377</v>
+        <v>8.313925057641951</v>
       </c>
       <c r="P6" t="n">
-        <v>354.369382407482</v>
+        <v>354.2927856762084</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -12990,28 +13030,28 @@
         <v>0.1105</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1968372173076516</v>
+        <v>0.2011370713215258</v>
       </c>
       <c r="J7" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K7" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01908673324295163</v>
+        <v>0.02005185204343063</v>
       </c>
       <c r="M7" t="n">
-        <v>8.134243874093682</v>
+        <v>8.120414952764449</v>
       </c>
       <c r="N7" t="n">
-        <v>105.1750259535917</v>
+        <v>104.8813135263564</v>
       </c>
       <c r="O7" t="n">
-        <v>10.25548760194227</v>
+        <v>10.24115782157254</v>
       </c>
       <c r="P7" t="n">
-        <v>359.8446775407044</v>
+        <v>359.8001501622884</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -13049,7 +13089,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H299"/>
+  <dimension ref="A1:H300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24743,7 +24783,11 @@
           <t>2025-06-06 22:10:54+00:00</t>
         </is>
       </c>
-      <c r="B299" t="inlineStr"/>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>-35.12278778622415,173.97984822656645</t>
+        </is>
+      </c>
       <c r="C299" t="inlineStr">
         <is>
           <t>-35.12302068797325,173.9807216996639</t>
@@ -24770,6 +24814,44 @@
         </is>
       </c>
       <c r="H299" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr"/>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>-35.12270345484621,173.9808517185901</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>-35.12263875124335,173.9817634358599</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>-35.12274060622684,173.98261785812477</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>-35.122873188358625,173.98351179369092</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>-35.12285185297015,173.98440974087308</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
         <is>
           <t>L8</t>
         </is>

--- a/data/nzd0058/nzd0058.xlsx
+++ b/data/nzd0058/nzd0058.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H300"/>
+  <dimension ref="A1:H302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8976,9 +8976,7 @@
           <t>2025-06-06 22:10:54+00:00</t>
         </is>
       </c>
-      <c r="B299" t="n">
-        <v>317.7</v>
-      </c>
+      <c r="B299" t="inlineStr"/>
       <c r="C299" t="n">
         <v>322.5346153846153</v>
       </c>
@@ -9023,6 +9021,66 @@
         <v>370.481052631579</v>
       </c>
       <c r="H300" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>290.5766666666667</v>
+      </c>
+      <c r="C301" t="n">
+        <v>322.2869230769231</v>
+      </c>
+      <c r="D301" t="n">
+        <v>351.54</v>
+      </c>
+      <c r="E301" t="n">
+        <v>358.395</v>
+      </c>
+      <c r="F301" t="n">
+        <v>348.7804761904762</v>
+      </c>
+      <c r="G301" t="n">
+        <v>352.34</v>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>297.0266666666667</v>
+      </c>
+      <c r="C302" t="n">
+        <v>329.9569230769231</v>
+      </c>
+      <c r="D302" t="n">
+        <v>357.97</v>
+      </c>
+      <c r="E302" t="n">
+        <v>365.07</v>
+      </c>
+      <c r="F302" t="n">
+        <v>353.8647619047619</v>
+      </c>
+      <c r="G302" t="n">
+        <v>354.7552631578947</v>
+      </c>
+      <c r="H302" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -9039,7 +9097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B342"/>
+  <dimension ref="A1:B344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12467,6 +12525,26 @@
       </c>
       <c r="B342" t="n">
         <v>-0.91</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -12640,28 +12718,28 @@
         <v>0.0336</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5083969947398743</v>
+        <v>0.4690385529361062</v>
       </c>
       <c r="J2" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K2" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03227593898090175</v>
+        <v>0.02750542416263868</v>
       </c>
       <c r="M2" t="n">
-        <v>16.34458397300223</v>
+        <v>16.49895130517733</v>
       </c>
       <c r="N2" t="n">
-        <v>392.6571024920107</v>
+        <v>396.0280716706659</v>
       </c>
       <c r="O2" t="n">
-        <v>19.81557726870481</v>
+        <v>19.90045405689694</v>
       </c>
       <c r="P2" t="n">
-        <v>305.7955552151498</v>
+        <v>306.2159787848209</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -12718,28 +12796,28 @@
         <v>0.0775</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6725973480715753</v>
+        <v>0.6537281376321654</v>
       </c>
       <c r="J3" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K3" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1237757556229612</v>
+        <v>0.1184831510254992</v>
       </c>
       <c r="M3" t="n">
-        <v>9.747006486338233</v>
+        <v>9.785727489135475</v>
       </c>
       <c r="N3" t="n">
-        <v>164.0989785979636</v>
+        <v>164.197614044596</v>
       </c>
       <c r="O3" t="n">
-        <v>12.81011235696095</v>
+        <v>12.81396168421757</v>
       </c>
       <c r="P3" t="n">
-        <v>321.5180103433996</v>
+        <v>321.7208434861683</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -12796,28 +12874,28 @@
         <v>0.1172</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5666916265849667</v>
+        <v>0.5521346500122138</v>
       </c>
       <c r="J4" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K4" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1461004751973375</v>
+        <v>0.1405038231561887</v>
       </c>
       <c r="M4" t="n">
-        <v>7.251872765323291</v>
+        <v>7.269930538637162</v>
       </c>
       <c r="N4" t="n">
-        <v>97.2506969373121</v>
+        <v>97.37212927416986</v>
       </c>
       <c r="O4" t="n">
-        <v>9.86157679771912</v>
+        <v>9.867731718797884</v>
       </c>
       <c r="P4" t="n">
-        <v>350.3146696822994</v>
+        <v>350.4694084431865</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -12874,28 +12952,28 @@
         <v>0.09089999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3396086231331316</v>
+        <v>0.3269381753361963</v>
       </c>
       <c r="J5" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K5" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06503979423160899</v>
+        <v>0.06099541940967335</v>
       </c>
       <c r="M5" t="n">
-        <v>6.918706448601196</v>
+        <v>6.931215435855444</v>
       </c>
       <c r="N5" t="n">
-        <v>87.35478562514328</v>
+        <v>87.35986203600415</v>
       </c>
       <c r="O5" t="n">
-        <v>9.346378208971819</v>
+        <v>9.346649776042973</v>
       </c>
       <c r="P5" t="n">
-        <v>361.7615187034823</v>
+        <v>361.8953930257428</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -12952,28 +13030,28 @@
         <v>0.1252</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1737117305566871</v>
+        <v>0.1622070560326834</v>
       </c>
       <c r="J6" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K6" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0224856895766361</v>
+        <v>0.01984370486802589</v>
       </c>
       <c r="M6" t="n">
-        <v>6.439974117309316</v>
+        <v>6.442518414487567</v>
       </c>
       <c r="N6" t="n">
-        <v>69.12134986408671</v>
+        <v>69.05982523283572</v>
       </c>
       <c r="O6" t="n">
-        <v>8.313925057641951</v>
+        <v>8.310224138543781</v>
       </c>
       <c r="P6" t="n">
-        <v>354.2927856762084</v>
+        <v>354.4135326571617</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -13030,28 +13108,28 @@
         <v>0.1105</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2011370713215258</v>
+        <v>0.1835208325582169</v>
       </c>
       <c r="J7" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K7" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02005185204343063</v>
+        <v>0.01686080774108945</v>
       </c>
       <c r="M7" t="n">
-        <v>8.120414952764449</v>
+        <v>8.160042962079046</v>
       </c>
       <c r="N7" t="n">
-        <v>104.8813135263564</v>
+        <v>105.0789368645542</v>
       </c>
       <c r="O7" t="n">
-        <v>10.24115782157254</v>
+        <v>10.25080176691337</v>
       </c>
       <c r="P7" t="n">
-        <v>359.8001501622884</v>
+        <v>359.9835746456085</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -13089,7 +13167,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H300"/>
+  <dimension ref="A1:H302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24783,11 +24861,7 @@
           <t>2025-06-06 22:10:54+00:00</t>
         </is>
       </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>-35.12278778622415,173.97984822656645</t>
-        </is>
-      </c>
+      <c r="B299" t="inlineStr"/>
       <c r="C299" t="inlineStr">
         <is>
           <t>-35.12302068797325,173.9807216996639</t>
@@ -24852,6 +24926,90 @@
         </is>
       </c>
       <c r="H300" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>-35.123015976526865,173.97974117560963</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>-35.12302280448164,173.98072083220322</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>-35.122983013688156,173.98169622614486</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>-35.12295542553849,173.9826127665034</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>-35.12304749979775,173.98351238328308</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>-35.123015415952345,173.98441101609555</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>-35.122961712281196,173.9797666326616</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>-35.12295726502182,173.9807476938294</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>-35.122925770155874,173.9817074017304</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>-35.12289525269385,173.9826141927142</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>-35.12300165819536,173.98351222822703</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>-35.12299363950705,173.98441084631426</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
         <is>
           <t>L8</t>
         </is>

--- a/data/nzd0058/nzd0058.xlsx
+++ b/data/nzd0058/nzd0058.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H302"/>
+  <dimension ref="A1:H304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9083,6 +9083,64 @@
       <c r="H302" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:11:59+00:00</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>330.4633333333333</v>
+      </c>
+      <c r="C303" t="n">
+        <v>329.0546153846154</v>
+      </c>
+      <c r="D303" t="n">
+        <v>371.4</v>
+      </c>
+      <c r="E303" t="n">
+        <v>387.7</v>
+      </c>
+      <c r="F303" t="n">
+        <v>370.5666666666667</v>
+      </c>
+      <c r="G303" t="n">
+        <v>366.1252631578947</v>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:11:37+00:00</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr"/>
+      <c r="C304" t="n">
+        <v>345.1184615384616</v>
+      </c>
+      <c r="D304" t="n">
+        <v>385.99</v>
+      </c>
+      <c r="E304" t="n">
+        <v>374.74</v>
+      </c>
+      <c r="F304" t="n">
+        <v>371.3238095238095</v>
+      </c>
+      <c r="G304" t="n">
+        <v>372.8921052631579</v>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -9097,7 +9155,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B344"/>
+  <dimension ref="A1:B346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12545,6 +12603,26 @@
       </c>
       <c r="B344" t="n">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>-0.68</v>
       </c>
     </row>
   </sheetData>
@@ -12718,28 +12796,28 @@
         <v>0.0336</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4690385529361062</v>
+        <v>0.4785866864330476</v>
       </c>
       <c r="J2" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K2" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02750542416263868</v>
+        <v>0.02880117113888614</v>
       </c>
       <c r="M2" t="n">
-        <v>16.49895130517733</v>
+        <v>16.47414792124767</v>
       </c>
       <c r="N2" t="n">
-        <v>396.0280716706659</v>
+        <v>395.0483309070274</v>
       </c>
       <c r="O2" t="n">
-        <v>19.90045405689694</v>
+        <v>19.87582277308357</v>
       </c>
       <c r="P2" t="n">
-        <v>306.2159787848209</v>
+        <v>306.1136630849564</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -12796,28 +12874,28 @@
         <v>0.0775</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6537281376321654</v>
+        <v>0.6512745167962293</v>
       </c>
       <c r="J3" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K3" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1184831510254992</v>
+        <v>0.1189539019729442</v>
       </c>
       <c r="M3" t="n">
-        <v>9.785727489135475</v>
+        <v>9.774816946401202</v>
       </c>
       <c r="N3" t="n">
-        <v>164.197614044596</v>
+        <v>163.4867389461403</v>
       </c>
       <c r="O3" t="n">
-        <v>12.81396168421757</v>
+        <v>12.78619329378921</v>
       </c>
       <c r="P3" t="n">
-        <v>321.7208434861683</v>
+        <v>321.7472150932438</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -12874,28 +12952,28 @@
         <v>0.1172</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5521346500122138</v>
+        <v>0.5714032674641505</v>
       </c>
       <c r="J4" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K4" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1405038231561887</v>
+        <v>0.1486598094699639</v>
       </c>
       <c r="M4" t="n">
-        <v>7.269930538637162</v>
+        <v>7.31896282734585</v>
       </c>
       <c r="N4" t="n">
-        <v>97.37212927416986</v>
+        <v>98.37532162093147</v>
       </c>
       <c r="O4" t="n">
-        <v>9.867731718797884</v>
+        <v>9.918433425744787</v>
       </c>
       <c r="P4" t="n">
-        <v>350.4694084431865</v>
+        <v>350.2635298304457</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -12952,28 +13030,28 @@
         <v>0.09089999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3269381753361963</v>
+        <v>0.342133609942517</v>
       </c>
       <c r="J5" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K5" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06099541940967335</v>
+        <v>0.06652235657727579</v>
       </c>
       <c r="M5" t="n">
-        <v>6.931215435855444</v>
+        <v>6.959797353677858</v>
       </c>
       <c r="N5" t="n">
-        <v>87.35986203600415</v>
+        <v>87.8593353966875</v>
       </c>
       <c r="O5" t="n">
-        <v>9.346649776042973</v>
+        <v>9.373331072606339</v>
       </c>
       <c r="P5" t="n">
-        <v>361.8953930257428</v>
+        <v>361.7341693733713</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -13030,28 +13108,28 @@
         <v>0.1252</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1622070560326834</v>
+        <v>0.1808203592500123</v>
       </c>
       <c r="J6" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K6" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01984370486802589</v>
+        <v>0.0245296336869637</v>
       </c>
       <c r="M6" t="n">
-        <v>6.442518414487567</v>
+        <v>6.495306763330835</v>
       </c>
       <c r="N6" t="n">
-        <v>69.05982523283572</v>
+        <v>69.66942210225926</v>
       </c>
       <c r="O6" t="n">
-        <v>8.310224138543781</v>
+        <v>8.346821077647421</v>
       </c>
       <c r="P6" t="n">
-        <v>354.4135326571617</v>
+        <v>354.2172528703906</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -13108,28 +13186,28 @@
         <v>0.1105</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1835208325582169</v>
+        <v>0.1906791256749946</v>
       </c>
       <c r="J7" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K7" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01686080774108945</v>
+        <v>0.01842451479429819</v>
       </c>
       <c r="M7" t="n">
-        <v>8.160042962079046</v>
+        <v>8.127113487752396</v>
       </c>
       <c r="N7" t="n">
-        <v>105.0789368645542</v>
+        <v>104.524347499463</v>
       </c>
       <c r="O7" t="n">
-        <v>10.25080176691337</v>
+        <v>10.22371495589852</v>
       </c>
       <c r="P7" t="n">
-        <v>359.9835746456085</v>
+        <v>359.9086463015676</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -13167,7 +13245,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H302"/>
+  <dimension ref="A1:H304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25015,6 +25093,86 @@
         </is>
       </c>
     </row>
+    <row r="303">
+      <c r="A303" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:11:59+00:00</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>-35.122680407468906,173.97989860096354</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>-35.12296497516016,173.98074453379868</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>-35.122806208621554,173.9817307435358</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>-35.12269125097061,173.98261902793521</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>-35.1228510682929,173.9835117188727</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>-35.122891125549195,173.98441004706146</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:11:37+00:00</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr"/>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>-35.12282771102247,173.9808007919561</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>-35.12267632009791,173.98175610138878</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>-35.12280808094638,173.9826162588485</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>-35.12284424164217,173.98351169578248</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>-35.12283011448712,173.9844095713895</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0058/nzd0058.xlsx
+++ b/data/nzd0058/nzd0058.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H304"/>
+  <dimension ref="A1:H305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9139,6 +9139,36 @@
         <v>372.8921052631579</v>
       </c>
       <c r="H304" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>326.1033333333333</v>
+      </c>
+      <c r="C305" t="n">
+        <v>329.43</v>
+      </c>
+      <c r="D305" t="n">
+        <v>363.22</v>
+      </c>
+      <c r="E305" t="n">
+        <v>373.125</v>
+      </c>
+      <c r="F305" t="n">
+        <v>360.6595238095238</v>
+      </c>
+      <c r="G305" t="n">
+        <v>363.0878947368421</v>
+      </c>
+      <c r="H305" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -9155,7 +9185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B346"/>
+  <dimension ref="A1:B347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12623,6 +12653,16 @@
       </c>
       <c r="B346" t="n">
         <v>-0.68</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>-0.65</v>
       </c>
     </row>
   </sheetData>
@@ -13245,7 +13285,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H304"/>
+  <dimension ref="A1:H305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25173,6 +25213,48 @@
         </is>
       </c>
     </row>
+    <row r="305">
+      <c r="A305" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>-35.122717088435415,173.9798813929051</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>-35.12296176753228,173.98074584845773</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>-35.12287903165654,173.98171652641994</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>-35.12282263961989,173.98261591378073</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>-35.12294039437309,173.9835120210076</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>-35.12291851100745,173.9844102605724</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0058/nzd0058.xlsx
+++ b/data/nzd0058/nzd0058.xlsx
@@ -12836,28 +12836,28 @@
         <v>0.0336</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4785866864330476</v>
+        <v>0.4844920008464039</v>
       </c>
       <c r="J2" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K2" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02880117113888614</v>
+        <v>0.02972278015575713</v>
       </c>
       <c r="M2" t="n">
-        <v>16.47414792124767</v>
+        <v>16.43454799336084</v>
       </c>
       <c r="N2" t="n">
-        <v>395.0483309070274</v>
+        <v>393.7399283303044</v>
       </c>
       <c r="O2" t="n">
-        <v>19.87582277308357</v>
+        <v>19.84288104913962</v>
       </c>
       <c r="P2" t="n">
-        <v>306.1136630849564</v>
+        <v>306.0501467573243</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -12914,28 +12914,28 @@
         <v>0.0775</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6512745167962293</v>
+        <v>0.6445353770756659</v>
       </c>
       <c r="J3" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K3" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1189539019729442</v>
+        <v>0.1173593572443242</v>
       </c>
       <c r="M3" t="n">
-        <v>9.774816946401202</v>
+        <v>9.778541399508168</v>
       </c>
       <c r="N3" t="n">
-        <v>163.4867389461403</v>
+        <v>163.2074915352038</v>
       </c>
       <c r="O3" t="n">
-        <v>12.78619329378921</v>
+        <v>12.77526874610486</v>
       </c>
       <c r="P3" t="n">
-        <v>321.7472150932438</v>
+        <v>321.8202097099064</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -12992,28 +12992,28 @@
         <v>0.1172</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5714032674641505</v>
+        <v>0.5700063941706187</v>
       </c>
       <c r="J4" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K4" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1486598094699639</v>
+        <v>0.1489439317379274</v>
       </c>
       <c r="M4" t="n">
-        <v>7.31896282734585</v>
+        <v>7.299910085394316</v>
       </c>
       <c r="N4" t="n">
-        <v>98.37532162093147</v>
+        <v>98.04302860711319</v>
       </c>
       <c r="O4" t="n">
-        <v>9.918433425744787</v>
+        <v>9.901667970958892</v>
       </c>
       <c r="P4" t="n">
-        <v>350.2635298304457</v>
+        <v>350.2784915748632</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -13070,28 +13070,28 @@
         <v>0.09089999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.342133609942517</v>
+        <v>0.34383910218027</v>
       </c>
       <c r="J5" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K5" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06652235657727579</v>
+        <v>0.06758823442406325</v>
       </c>
       <c r="M5" t="n">
-        <v>6.959797353677858</v>
+        <v>6.943514521927798</v>
       </c>
       <c r="N5" t="n">
-        <v>87.8593353966875</v>
+        <v>87.5610565470558</v>
       </c>
       <c r="O5" t="n">
-        <v>9.373331072606339</v>
+        <v>9.357406507524177</v>
       </c>
       <c r="P5" t="n">
-        <v>361.7341693733713</v>
+        <v>361.7160071333387</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -13148,28 +13148,28 @@
         <v>0.1252</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1808203592500123</v>
+        <v>0.1821042988218373</v>
       </c>
       <c r="J6" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K6" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0245296336869637</v>
+        <v>0.02506037937203154</v>
       </c>
       <c r="M6" t="n">
-        <v>6.495306763330835</v>
+        <v>6.47731359520529</v>
       </c>
       <c r="N6" t="n">
-        <v>69.66942210225926</v>
+        <v>69.41152734723718</v>
       </c>
       <c r="O6" t="n">
-        <v>8.346821077647421</v>
+        <v>8.331358073401789</v>
       </c>
       <c r="P6" t="n">
-        <v>354.2172528703906</v>
+        <v>354.2036729556876</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -13226,28 +13226,28 @@
         <v>0.1105</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1906791256749946</v>
+        <v>0.1893148750639964</v>
       </c>
       <c r="J7" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K7" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01842451479429819</v>
+        <v>0.01830795638611371</v>
       </c>
       <c r="M7" t="n">
-        <v>8.127113487752396</v>
+        <v>8.103941225017943</v>
       </c>
       <c r="N7" t="n">
-        <v>104.524347499463</v>
+        <v>104.1348615234608</v>
       </c>
       <c r="O7" t="n">
-        <v>10.22371495589852</v>
+        <v>10.20464901520188</v>
       </c>
       <c r="P7" t="n">
-        <v>359.9086463015676</v>
+        <v>359.9229591778093</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">

--- a/data/nzd0058/nzd0058.xlsx
+++ b/data/nzd0058/nzd0058.xlsx
@@ -12827,13 +12827,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0262</v>
+        <v>0.0193</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0336</v>
+        <v>0.0278</v>
       </c>
       <c r="I2" t="n">
         <v>0.4845036810913983</v>
@@ -12908,10 +12908,10 @@
         <v>0.065</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0576</v>
+        <v>0.0476</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0775</v>
+        <v>0.1108</v>
       </c>
       <c r="I3" t="n">
         <v>0.6445546553711402</v>
@@ -12983,13 +12983,13 @@
         <v>0.3987475348844787</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.0537</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1172</v>
+        <v>0.1037</v>
       </c>
       <c r="I4" t="n">
         <v>0.5700063941706188</v>
@@ -13061,13 +13061,13 @@
         <v>0.599174004986933</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0727</v>
+        <v>0.0319</v>
       </c>
       <c r="H5" t="n">
-        <v>0.09089999999999999</v>
+        <v>0.0519</v>
       </c>
       <c r="I5" t="n">
         <v>0.3438282771649367</v>
@@ -13139,13 +13139,13 @@
         <v>0.7995735298984529</v>
       </c>
       <c r="F6" t="n">
-        <v>0.105</v>
+        <v>0.2</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0901</v>
+        <v>0.132</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1252</v>
+        <v>0.2</v>
       </c>
       <c r="I6" t="n">
         <v>0.1820622108793134</v>
@@ -13217,13 +13217,13 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.095</v>
+        <v>0.105</v>
       </c>
       <c r="G7" t="n">
-        <v>0.08</v>
+        <v>0.07969999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1105</v>
+        <v>0.1509</v>
       </c>
       <c r="I7" t="n">
         <v>0.1892897403581902</v>

--- a/data/nzd0058/nzd0058.xlsx
+++ b/data/nzd0058/nzd0058.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H307"/>
+  <dimension ref="A1:H308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9639,6 +9639,36 @@
       <c r="H307" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:11:40+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>313.92</v>
+      </c>
+      <c r="C308" t="n">
+        <v>332.86</v>
+      </c>
+      <c r="D308" t="n">
+        <v>365.33</v>
+      </c>
+      <c r="E308" t="n">
+        <v>366.43</v>
+      </c>
+      <c r="F308" t="n">
+        <v>363.27</v>
+      </c>
+      <c r="G308" t="n">
+        <v>362.91</v>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -9653,7 +9683,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B348"/>
+  <dimension ref="A1:B349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13141,6 +13171,16 @@
       </c>
       <c r="B348" t="n">
         <v>0.25</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>-0.44</v>
       </c>
     </row>
   </sheetData>
@@ -13311,31 +13351,31 @@
         <v>0.0193</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0278</v>
+        <v>0.0276</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5445080463241334</v>
+        <v>0.5384569793625325</v>
       </c>
       <c r="J2" t="n">
+        <v>307</v>
+      </c>
+      <c r="K2" t="n">
         <v>306</v>
       </c>
-      <c r="K2" t="n">
-        <v>305</v>
-      </c>
       <c r="L2" t="n">
-        <v>0.09272465684785136</v>
+        <v>0.09127007607176096</v>
       </c>
       <c r="M2" t="n">
-        <v>9.806328922682846</v>
+        <v>9.797472677779968</v>
       </c>
       <c r="N2" t="n">
-        <v>151.0653717182766</v>
+        <v>150.8522022100355</v>
       </c>
       <c r="O2" t="n">
-        <v>12.29086537711143</v>
+        <v>12.28219044837017</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9080857959263</v>
+        <v>308.9739515936922</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -13390,34 +13430,34 @@
         <v>0.065</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0476</v>
+        <v>0.0475</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1114</v>
+        <v>0.1105</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6284186006681314</v>
+        <v>0.6243387257476326</v>
       </c>
       <c r="J3" t="n">
+        <v>307</v>
+      </c>
+      <c r="K3" t="n">
         <v>306</v>
       </c>
-      <c r="K3" t="n">
-        <v>305</v>
-      </c>
       <c r="L3" t="n">
-        <v>0.255078085854876</v>
+        <v>0.2534934111094902</v>
       </c>
       <c r="M3" t="n">
-        <v>5.671224852615492</v>
+        <v>5.67297408096247</v>
       </c>
       <c r="N3" t="n">
-        <v>60.05485329581162</v>
+        <v>59.98611472494039</v>
       </c>
       <c r="O3" t="n">
-        <v>7.749506648542965</v>
+        <v>7.7450703499026</v>
       </c>
       <c r="P3" t="n">
-        <v>322.6044815801811</v>
+        <v>322.6488909741159</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -13468,34 +13508,34 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0538</v>
+        <v>0.0537</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1043</v>
+        <v>0.1037</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5413014879019041</v>
+        <v>0.5411738815840564</v>
       </c>
       <c r="J4" t="n">
+        <v>307</v>
+      </c>
+      <c r="K4" t="n">
         <v>306</v>
       </c>
-      <c r="K4" t="n">
-        <v>305</v>
-      </c>
       <c r="L4" t="n">
-        <v>0.2796712253103469</v>
+        <v>0.2809468669669396</v>
       </c>
       <c r="M4" t="n">
-        <v>4.503940701109845</v>
+        <v>4.489974035294534</v>
       </c>
       <c r="N4" t="n">
-        <v>39.29830932889379</v>
+        <v>39.17000822722226</v>
       </c>
       <c r="O4" t="n">
-        <v>6.268836361629947</v>
+        <v>6.258594748601499</v>
       </c>
       <c r="P4" t="n">
-        <v>351.2842814687194</v>
+        <v>351.2856704620951</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -13546,34 +13586,34 @@
         <v>0.04</v>
       </c>
       <c r="G5" t="n">
-        <v>0.032</v>
+        <v>0.0319</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0521</v>
+        <v>0.052</v>
       </c>
       <c r="I5" t="n">
-        <v>0.427541061965886</v>
+        <v>0.4231869726368563</v>
       </c>
       <c r="J5" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K5" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1982745968347508</v>
+        <v>0.1955134727736106</v>
       </c>
       <c r="M5" t="n">
-        <v>4.877157583770103</v>
+        <v>4.883428549605314</v>
       </c>
       <c r="N5" t="n">
-        <v>38.43854588612428</v>
+        <v>38.45768235990429</v>
       </c>
       <c r="O5" t="n">
-        <v>6.199882731642936</v>
+        <v>6.201425832814925</v>
       </c>
       <c r="P5" t="n">
-        <v>361.8689852032271</v>
+        <v>361.9164707531449</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -13624,34 +13664,34 @@
         <v>0.2</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1318</v>
+        <v>0.1314</v>
       </c>
       <c r="H6" t="n">
         <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1634872384205084</v>
+        <v>0.1669492763919506</v>
       </c>
       <c r="J6" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K6" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07652566277234207</v>
+        <v>0.07963707071815307</v>
       </c>
       <c r="M6" t="n">
-        <v>3.291655342902001</v>
+        <v>3.296095654895206</v>
       </c>
       <c r="N6" t="n">
-        <v>16.77405895155144</v>
+        <v>16.81083809203578</v>
       </c>
       <c r="O6" t="n">
-        <v>4.095614599977814</v>
+        <v>4.10010220507194</v>
       </c>
       <c r="P6" t="n">
-        <v>353.6529823669973</v>
+        <v>353.615225498801</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -13702,34 +13742,34 @@
         <v>0.105</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0799</v>
+        <v>0.0798</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1509</v>
+        <v>0.1507</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2096255832429857</v>
+        <v>0.2081918534267901</v>
       </c>
       <c r="J7" t="n">
+        <v>307</v>
+      </c>
+      <c r="K7" t="n">
         <v>306</v>
       </c>
-      <c r="K7" t="n">
-        <v>305</v>
-      </c>
       <c r="L7" t="n">
-        <v>0.06726615325051855</v>
+        <v>0.06680191657007484</v>
       </c>
       <c r="M7" t="n">
-        <v>4.703338330150022</v>
+        <v>4.694297507308094</v>
       </c>
       <c r="N7" t="n">
-        <v>31.596701796383</v>
+        <v>31.5091206057364</v>
       </c>
       <c r="O7" t="n">
-        <v>5.621094359320345</v>
+        <v>5.61329854949266</v>
       </c>
       <c r="P7" t="n">
-        <v>359.5979749078652</v>
+        <v>359.6136258827711</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -13767,7 +13807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H307"/>
+  <dimension ref="A1:H308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26637,6 +26677,48 @@
         </is>
       </c>
     </row>
+    <row r="308">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:11:40+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>-35.122819587606585,173.97983330761596</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>-35.12293245848919,173.98075786088063</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>-35.12286024723084,173.9817201936734</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>-35.1228829927584,173.98261448329785</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>-35.122916857455564,173.98351194139647</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>-35.12292011493828,173.98441027307746</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
